--- a/Flowrate Data/Cali for new.xlsx
+++ b/Flowrate Data/Cali for new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslai/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslai/Desktop/LowCostAirPumpCode/Flowrate Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -246,19 +249,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13602</c:v>
+                  <c:v>0.1135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26427</c:v>
+                  <c:v>0.22558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37251</c:v>
+                  <c:v>0.33221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47518</c:v>
+                  <c:v>0.43663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56462</c:v>
+                  <c:v>0.5411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.740718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,11 +408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-95571552"/>
-        <c:axId val="-58590624"/>
+        <c:axId val="-57968048"/>
+        <c:axId val="11710192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-95571552"/>
+        <c:axId val="-57968048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,12 +455,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58590624"/>
+        <c:crossAx val="11710192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-58590624"/>
+        <c:axId val="11710192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,6 +480,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -501,7 +511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-95571552"/>
+        <c:crossAx val="-57968048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -696,54 +706,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$10</c:f>
+              <c:f>Sheet1!$F$4:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$10</c:f>
+              <c:f>Sheet1!$G$4:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.11121</c:v>
+                  <c:v>0.11193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22277</c:v>
+                  <c:v>0.16636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33604</c:v>
+                  <c:v>0.22214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45307</c:v>
+                  <c:v>0.27678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48396</c:v>
+                  <c:v>0.33053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,60 +827,72 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$10</c:f>
+              <c:f>Sheet1!$F$4:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$10</c:f>
+              <c:f>Sheet1!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,11 +907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76502064"/>
-        <c:axId val="76504384"/>
+        <c:axId val="11929456"/>
+        <c:axId val="11746480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76502064"/>
+        <c:axId val="11929456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,12 +967,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76504384"/>
+        <c:crossAx val="11746480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76504384"/>
+        <c:axId val="11746480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,6 +992,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -988,7 +1029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76502064"/>
+        <c:crossAx val="11929456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2186,15 +2227,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>774701</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:colOff>713741</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>368301</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>46567</xdr:rowOff>
+      <xdr:colOff>307341</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158327</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2216,15 +2257,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>503767</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:colOff>463127</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>97367</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>56727</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2244,6 +2285,470 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90">
+            <v>0.18000000999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2509,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I10"/>
+  <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2550,27 +3055,27 @@
         <v>0.1</v>
       </c>
       <c r="B4">
-        <v>0.13602</v>
+        <v>0.1135</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
       <c r="D4" s="1">
         <f>(B4-A4)/A4</f>
-        <v>0.36019999999999996</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="F4">
         <v>0.1</v>
       </c>
       <c r="G4">
-        <v>0.11121</v>
+        <v>0.11193</v>
       </c>
       <c r="H4">
         <v>0.1</v>
       </c>
       <c r="I4" s="1">
         <f>(G4-F4)/F4</f>
-        <v>0.11209999999999998</v>
+        <v>0.11929999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2578,27 +3083,27 @@
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>0.26427</v>
+        <v>0.22558</v>
       </c>
       <c r="C5">
         <v>0.2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D10" si="0">(B5-A5)/A5</f>
-        <v>0.32134999999999997</v>
+        <v>0.12789999999999996</v>
       </c>
       <c r="F5">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G5">
-        <v>0.22277</v>
+        <v>0.16636000000000001</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I10" si="1">(G5-F5)/F5</f>
-        <v>0.11384999999999992</v>
+        <f t="shared" ref="I5:I12" si="1">(G5-F5)/F5</f>
+        <v>0.10906666666666676</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2606,27 +3111,27 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>0.37251000000000001</v>
+        <v>0.33221000000000001</v>
       </c>
       <c r="C6">
         <v>0.3</v>
       </c>
       <c r="D6" s="1">
         <f>(B6-A6)/A6</f>
-        <v>0.24170000000000008</v>
+        <v>0.10736666666666672</v>
       </c>
       <c r="F6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G6">
-        <v>0.33604000000000001</v>
+        <v>0.22214</v>
       </c>
       <c r="H6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I6" s="1">
-        <f>(B6-F6)/F6</f>
-        <v>0.24170000000000008</v>
+        <f>(G6-F6)/F6</f>
+        <v>0.11069999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2634,27 +3139,27 @@
         <v>0.4</v>
       </c>
       <c r="B7">
-        <v>0.47517999999999999</v>
+        <v>0.43663000000000002</v>
       </c>
       <c r="C7">
         <v>0.4</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0.18794999999999992</v>
+        <v>9.157499999999999E-2</v>
       </c>
       <c r="F7">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="G7">
-        <v>0.45306999999999997</v>
+        <v>0.27678000000000003</v>
       </c>
       <c r="H7">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>0.13267499999999988</v>
+        <v>0.1071200000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2662,71 +3167,113 @@
         <v>0.5</v>
       </c>
       <c r="B8">
-        <v>0.56462000000000001</v>
+        <v>0.54110000000000003</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0.12924000000000002</v>
+        <v>8.2200000000000051E-2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G8">
-        <v>0.48396</v>
+        <v>0.33052999999999999</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>-3.2079999999999997E-2</v>
+        <v>0.10176666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.6</v>
       </c>
+      <c r="B9">
+        <v>0.64017999999999997</v>
+      </c>
       <c r="C9">
         <v>0.6</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>6.696666666666666E-2</v>
       </c>
       <c r="F9">
-        <v>0.6</v>
+        <v>0.35</v>
+      </c>
+      <c r="G9">
+        <v>0.38340000000000002</v>
       </c>
       <c r="H9">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>9.5428571428571557E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.7</v>
       </c>
+      <c r="B10">
+        <v>0.74071799999999999</v>
+      </c>
       <c r="C10">
         <v>0.7</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>5.8168571428571479E-2</v>
       </c>
       <c r="F10">
-        <v>0.7</v>
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <v>0.43730000000000002</v>
       </c>
       <c r="H10">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>9.325E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0.45</v>
+      </c>
+      <c r="G11">
+        <v>0.49069000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.45</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0422222222222223E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.54701999999999995</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4039999999999901E-2</v>
       </c>
     </row>
   </sheetData>
